--- a/example/data.xlsx
+++ b/example/data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\code\mine\c-therm-tci\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F348973-DA68-4F54-BB18-E3895DC07928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAFA98B-5D2E-4C59-8B01-EDC0861E365B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93FFE7E9-8D0B-4A13-ABAD-C70C4867C953}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{93FFE7E9-8D0B-4A13-ABAD-C70C4867C953}"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Note: Do not edit cell A1 here, it will dynamically find the file path to the directory this Excel workbook is in. Your "data.csv" file should be located directly next to this file, in the same folder.</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>ExampleTestMethod</t>
+  </si>
+  <si>
+    <t>Validity override</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -520,7 +529,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEDC33B-E3B8-4F8B-B236-0179CF02C2F4}" name="results" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DEDC33B-E3B8-4F8B-B236-0179CF02C2F4}" name="results" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="22" showAll="0"/>
@@ -611,8 +620,8 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{34AD9E85-DF85-4970-B0EC-B882C7E26756}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
-    <queryTableFields count="12">
+  <queryTableRefresh nextId="16" unboundColumnsRight="3">
+    <queryTableFields count="15">
       <queryTableField id="1" name="Test" tableColumnId="1"/>
       <queryTableField id="2" name="User" tableColumnId="2"/>
       <queryTableField id="3" name="Method" tableColumnId="3"/>
@@ -625,6 +634,9 @@
       <queryTableField id="10" name="Ambient temperature (°C)" tableColumnId="10"/>
       <queryTableField id="11" name="Effusivity (W-s^(1/2)/m^2-K)" tableColumnId="11"/>
       <queryTableField id="12" name="Thermal conductivity (W/m-k)" tableColumnId="12"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="14"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="15"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -689,9 +701,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A00B2DEA-5795-433A-A65D-A353785164AE}" name="grouped_averages" displayName="grouped_averages" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{A00B2DEA-5795-433A-A65D-A353785164AE}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A00B2DEA-5795-433A-A65D-A353785164AE}" name="grouped_averages" displayName="grouped_averages" ref="A1:O2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:O2" xr:uid="{A00B2DEA-5795-433A-A65D-A353785164AE}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1FF189A1-FDDB-4801-9150-96C2FE37F410}" uniqueName="1" name="Test" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{8B62B903-5D0F-4D81-8AA2-767C27B69CF5}" uniqueName="2" name="User" queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{1F0FC98F-7517-4B65-8380-5B643D47CFFE}" uniqueName="3" name="Method" queryTableFieldId="3" dataDxfId="4"/>
@@ -704,6 +716,11 @@
     <tableColumn id="10" xr3:uid="{BF130121-C447-4C43-94F9-28F285708EB9}" uniqueName="10" name="Ambient temperature (°C)" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{ACB46349-91D1-4AA9-9645-0CF2C1300BB5}" uniqueName="11" name="Effusivity (W-s^(1/2)/m^2-K)" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{A07C3B15-30A0-4C3E-9EEE-763207CCC37D}" uniqueName="12" name="Thermal conductivity (W/m-k)" queryTableFieldId="12"/>
+    <tableColumn id="13" xr3:uid="{1260EA64-8F69-4A9F-AAF5-8280CA2D767D}" uniqueName="13" name="Validity override" queryTableFieldId="13"/>
+    <tableColumn id="14" xr3:uid="{38EEFBAE-1686-4166-BBFF-29001E15FE9A}" uniqueName="14" name="Valid" queryTableFieldId="14">
+      <calculatedColumnFormula>IF(ISBLANK(grouped_averages[[#This Row],[Validity override]]),grouped_averages[[#This Row],[Validity at test time]],grouped_averages[[#This Row],[Validity override]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{62E6A5AD-5939-4624-8A52-9DEA4BC335E7}" uniqueName="15" name="Comment" queryTableFieldId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1028,14 +1045,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545DF704-FDAD-42C1-8A41-5EF780A7663D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str" cm="1">
         <f t="array" aca="1" ref="A1" ca="1">LEFT(CELL("filename", A1), FIND("[", CELL("filename",A1))-1)</f>
-        <v>C:\Users\Blake\Desktop\</v>
+        <v>C:\Users\Blake\code\mine\c-therm-tci\example\</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1060,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480A1A0F-0850-4FEA-BCA1-006171DF0C7F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1240,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5AB208-E29B-4A99-BC3F-3BA23DB4ACA6}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,9 +1275,12 @@
     <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1297,8 +1317,17 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45292</v>
       </c>
@@ -1334,6 +1363,10 @@
       </c>
       <c r="L2">
         <v>0.74448625633333332</v>
+      </c>
+      <c r="N2" t="b">
+        <f>IF(ISBLANK(grouped_averages[[#This Row],[Validity override]]),grouped_averages[[#This Row],[Validity at test time]],grouped_averages[[#This Row],[Validity override]])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1348,9 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D2B45E-EF2A-48ED-AF4C-8D006BDE74EE}">
   <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
